--- a/data/define/define.xlsx
+++ b/data/define/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="10"/>
+    <workbookView windowWidth="20430" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metric" sheetId="5" r:id="rId1"/>
@@ -3799,11 +3799,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3879,38 +3879,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3923,6 +3894,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3931,8 +3961,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3955,40 +3994,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3999,17 +4008,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4062,7 +4062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4074,13 +4074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4092,67 +4092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,7 +4122,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,61 +4230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4332,15 +4332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4351,30 +4342,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4410,6 +4377,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4434,148 +4434,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4616,7 +4616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5470,7 +5470,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -5728,8 +5728,8 @@
   <sheetPr/>
   <dimension ref="A1:AK81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11712,8 +11712,8 @@
   <sheetPr/>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -13684,7 +13684,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -18328,8 +18328,8 @@
   <sheetPr/>
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20184,7 +20184,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -20326,7 +20326,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
         <v>1008</v>
       </c>

--- a/data/define/define.xlsx
+++ b/data/define/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20430" windowHeight="5775" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="metric" sheetId="5" r:id="rId1"/>
@@ -3069,7 +3069,27 @@
     <t>市盈率（TTM，亏损的PE为空）</t>
   </si>
   <si>
-    <t>市净率（总市值/净资产）</t>
+    <r>
+      <t>市净率（总市值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>净资产）</t>
+    </r>
   </si>
   <si>
     <t>ps</t>
@@ -3799,11 +3819,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3873,15 +3893,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3894,8 +3927,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3932,61 +3974,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4002,14 +3989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4020,6 +4000,46 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4062,7 +4082,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4074,67 +4130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,7 +4148,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,55 +4232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4224,19 +4250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4333,36 +4353,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4373,6 +4363,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4392,20 +4411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4419,13 +4435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4434,148 +4454,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11712,8 +11732,8 @@
   <sheetPr/>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -13684,7 +13704,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -14993,7 +15013,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -15952,8 +15972,8 @@
   <sheetPr/>
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -18328,8 +18348,8 @@
   <sheetPr/>
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20184,7 +20204,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -20282,7 +20302,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="24" t="s">
         <v>1001</v>
       </c>
@@ -20293,18 +20313,18 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="24" t="s">
         <v>1004</v>
       </c>
@@ -20326,7 +20346,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="17.25" spans="1:3">
       <c r="A13" s="24" t="s">
         <v>1008</v>
       </c>

--- a/data/define/define.xlsx
+++ b/data/define/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="22"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metric" sheetId="5" r:id="rId1"/>
@@ -4251,11 +4251,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4376,21 +4376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4419,8 +4405,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4434,11 +4443,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4450,24 +4466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4482,23 +4482,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4509,6 +4502,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4574,7 +4574,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4586,7 +4622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4598,127 +4634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4736,7 +4652,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4832,22 +4832,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4867,17 +4862,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4886,7 +4886,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4906,26 +4906,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4934,148 +4934,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5192,7 +5192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10142,7 +10142,7 @@
   <sheetPr/>
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView topLeftCell="I34" workbookViewId="0">
+    <sheetView topLeftCell="I22" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12499,7 +12499,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -34125,8 +34125,8 @@
   <sheetPr/>
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -34336,7 +34336,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="63" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -34350,7 +34350,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="63" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -34378,7 +34378,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="63" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -35190,7 +35190,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="63" t="s">
         <v>220</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -35204,7 +35204,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="63" t="s">
         <v>222</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -35218,7 +35218,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="63" t="s">
         <v>224</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -37216,7 +37216,7 @@
   <sheetPr/>
   <dimension ref="C4:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -37735,7 +37735,7 @@
   <sheetPr/>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -42380,7 +42380,7 @@
   <sheetPr/>
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -42393,7 +42393,7 @@
     <col min="5" max="6" width="14.75" style="50" customWidth="1"/>
     <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="13" style="50" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="50" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="50" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="50"/>
     <col min="11" max="11" width="15.875" style="50" customWidth="1"/>
     <col min="12" max="12" width="23" style="50" customWidth="1"/>
@@ -43750,7 +43750,7 @@
   <sheetPr/>
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -44482,7 +44482,7 @@
         <v>986995</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="17.25" spans="1:4">
       <c r="A18" s="25" t="s">
         <v>1018</v>
       </c>
